--- a/results/tinybert/dilemma/confidence/topk/avg_scores.xlsx
+++ b/results/tinybert/dilemma/confidence/topk/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
   <si>
     <t>negative</t>
   </si>
@@ -43,535 +43,664 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>outdated</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>disgusted</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>shitty</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>downward</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>differently</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>vicious</t>
-  </si>
-  <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>badly</t>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>problematic</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>painful</t>
+  </si>
+  <si>
+    <t>trapped</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>ugly</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>overly</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>destructive</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>drunk</t>
   </si>
   <si>
     <t>unnecessary</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>trapped</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>angry</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>serious</t>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>few</t>
   </si>
   <si>
     <t>least</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>bitter</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>annoyed</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>ass</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
     <t>less</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>delighted</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>amazingly</t>
-  </si>
-  <si>
     <t>refreshing</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>delighted</t>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>freely</t>
   </si>
   <si>
     <t>elegant</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>oldest</t>
   </si>
   <si>
-    <t>impressive</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>splendid</t>
-  </si>
-  <si>
     <t>greatest</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>biggest</t>
   </si>
   <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>more</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>remarkably</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>masterpiece</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>goals</t>
   </si>
   <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>hugely</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>accurate</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>hugely</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>major</t>
+    <t>design</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>large</t>
   </si>
   <si>
     <t>fascinating</t>
   </si>
   <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
     <t>tool</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>perhaps</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>wanna</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>quite</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>faster</t>
+  </si>
+  <si>
+    <t>has</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>has</t>
+    <t>/</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>?</t>
+    <t>s</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>we</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>i</t>
   </si>
   <si>
     <t>the</t>
@@ -932,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -998,16 +1127,16 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1022,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1048,16 +1177,16 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1072,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1098,16 +1227,16 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1122,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1148,7 +1277,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1172,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1198,16 +1327,16 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1222,16 +1351,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1248,7 +1377,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1272,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1298,16 +1427,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1322,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1348,16 +1477,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1372,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1398,7 +1527,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1422,16 +1551,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1448,16 +1577,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1472,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1498,16 +1627,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1522,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1548,16 +1677,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1572,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1598,16 +1727,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.9666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1619,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1648,16 +1777,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.9326923076923077</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1669,19 +1798,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1698,16 +1827,16 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>0.9230769230769231</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1719,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1743,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1769,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1793,21 +1922,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1819,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K19">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1843,21 +1972,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.8235294117647058</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1869,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K20">
-        <v>0.8888888888888888</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1893,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.8125</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1919,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K21">
         <v>0.8</v>
@@ -1948,40 +2077,40 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K22">
-        <v>0.72</v>
+        <v>0.7578947368421053</v>
       </c>
       <c r="L22">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M22">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1993,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="C23">
         <v>28</v>
       </c>
-      <c r="B23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
       <c r="D23">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2022,16 +2151,16 @@
         <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2043,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.75</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2072,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K24">
         <v>0.6666666666666666</v>
@@ -2098,16 +2227,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.75</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2119,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K25">
-        <v>0.6140350877192983</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2143,21 +2272,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2169,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2193,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2201,13 +2330,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.7368421052631579</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2219,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K27">
-        <v>0.5894736842105263</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2243,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2251,13 +2380,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2269,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2293,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2301,13 +2430,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2319,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2343,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2351,13 +2480,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2369,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K30">
         <v>0.5</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2393,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2401,13 +2530,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2419,19 +2548,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K31">
         <v>0.5</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2443,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2451,13 +2580,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2469,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K32">
-        <v>0.4864864864864865</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2493,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2504,10 +2633,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2519,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K33">
-        <v>0.4266666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2543,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2551,13 +2680,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2569,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K34">
-        <v>0.4</v>
-      </c>
-      <c r="L34">
-        <v>4</v>
-      </c>
       <c r="M34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2593,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2601,13 +2730,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2619,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K35">
-        <v>0.3793103448275862</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2643,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2651,13 +2780,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5833333333333334</v>
+        <v>0.65</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2669,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K36">
-        <v>0.3666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2693,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2701,13 +2830,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.575</v>
+        <v>0.5625</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2719,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K37">
-        <v>0.3333333333333333</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2743,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2751,13 +2880,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5714285714285714</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2769,19 +2898,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2793,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2801,13 +2930,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5606060606060606</v>
+        <v>0.5</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2819,19 +2948,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K39">
-        <v>0.3333333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2843,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2851,13 +2980,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2869,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2893,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2904,10 +3033,10 @@
         <v>0.5</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2919,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K41">
-        <v>0.3333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2943,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2972,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K42">
         <v>0.3333333333333333</v>
@@ -3022,16 +3151,16 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K43">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3043,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3072,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K44">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3093,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3122,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K45">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -3143,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3172,16 +3301,16 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K46">
-        <v>0.25</v>
+        <v>0.296875</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3193,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3201,13 +3330,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3219,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K47">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -3243,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3251,13 +3380,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3269,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K48">
-        <v>0.234375</v>
+        <v>0.25</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3293,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3301,13 +3430,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.5</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3319,13 +3448,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K49">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3343,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3351,13 +3480,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3369,19 +3498,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K50">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3393,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3401,13 +3530,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3419,31 +3548,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K51">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>3</v>
-      </c>
-      <c r="M51">
-        <v>3</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3451,13 +3580,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4927536231884058</v>
+        <v>0.4</v>
       </c>
       <c r="C52">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3469,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K52">
-        <v>0.1818181818181818</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -3493,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3501,31 +3630,31 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4705882352941176</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>8</v>
       </c>
-      <c r="D53">
-        <v>8</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>9</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K53">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3543,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3551,13 +3680,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4615384615384616</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3569,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K54">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3593,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3601,13 +3730,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.4545454545454545</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3619,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K55">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3643,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3651,13 +3780,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.4285714285714285</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3669,19 +3798,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K56">
-        <v>0.1578947368421053</v>
+        <v>0.2</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3693,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3701,13 +3830,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.4230769230769231</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3719,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K57">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3743,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3751,13 +3880,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.4102564102564102</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C58">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3769,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K58">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3793,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3801,13 +3930,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.4042553191489361</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3819,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="K59">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3843,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3851,13 +3980,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3869,13 +3998,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K60">
-        <v>0.09090909090909091</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3893,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3901,13 +4030,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3919,19 +4048,19 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K61">
-        <v>0.08333333333333333</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3951,13 +4080,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3809523809523809</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3969,19 +4098,19 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K62">
-        <v>0.05084745762711865</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3993,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -4001,13 +4130,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3684210526315789</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4019,13 +4148,13 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K63">
-        <v>0.0303030303030303</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4043,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4051,13 +4180,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4069,13 +4198,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K64">
-        <v>0.02857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4093,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4101,13 +4230,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4119,13 +4248,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K65">
-        <v>0.02439024390243903</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4143,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4151,13 +4280,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3333333333333333</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4169,19 +4298,19 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K66">
-        <v>0.02367941712204007</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L66">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4193,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>1072</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4201,13 +4330,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.3333333333333333</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4219,19 +4348,19 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K67">
-        <v>0.01639344262295082</v>
+        <v>0.125</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4243,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4251,7 +4380,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4269,13 +4398,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K68">
-        <v>0.01639344262295082</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4293,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4301,7 +4430,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4319,19 +4448,19 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K69">
-        <v>0.01538461538461539</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4343,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4351,7 +4480,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4369,13 +4498,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K70">
-        <v>0.01408450704225352</v>
+        <v>0.1</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4393,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4401,13 +4530,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.3333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4419,13 +4548,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K71">
-        <v>0.008695652173913044</v>
+        <v>0.1</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4443,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4451,13 +4580,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.3333333333333333</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4469,31 +4598,31 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="K72">
-        <v>0.004184100418410041</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>238</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4501,13 +4630,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3333333333333333</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4519,13 +4648,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K73">
-        <v>0.00353356890459364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4543,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>282</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4551,7 +4680,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4569,31 +4698,31 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="K74">
-        <v>0.00352112676056338</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>283</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4601,13 +4730,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.3214285714285715</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C75">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4619,13 +4748,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K75">
-        <v>0.003472222222222222</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4643,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>287</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4651,13 +4780,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2727272727272727</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4669,19 +4798,19 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K76">
-        <v>0.003012048192771084</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4693,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>662</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4701,13 +4830,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2608695652173913</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4719,19 +4848,19 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K77">
-        <v>0.002932551319648094</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4743,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>340</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4751,38 +4880,38 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>12</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K78">
+        <v>0.07317073170731707</v>
+      </c>
+      <c r="L78">
         <v>3</v>
       </c>
-      <c r="D78">
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>9</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K78">
-        <v>0.002808988764044944</v>
-      </c>
-      <c r="L78">
-        <v>2</v>
-      </c>
-      <c r="M78">
-        <v>2</v>
-      </c>
       <c r="N78">
         <v>0</v>
       </c>
@@ -4793,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>710</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4801,7 +4930,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -4819,13 +4948,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K79">
-        <v>0.0022271714922049</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L79">
         <v>1</v>
@@ -4843,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>448</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4851,13 +4980,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4869,19 +4998,19 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K80">
-        <v>0.001743679163034002</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4893,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>1145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -4901,13 +5030,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2083333333333333</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4919,19 +5048,19 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K81">
-        <v>0.001728110599078341</v>
+        <v>0.0625</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4943,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>1733</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -4951,13 +5080,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1666666666666667</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4969,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K82">
-        <v>0.001138952164009112</v>
+        <v>0.0625</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -4993,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>877</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -5001,7 +5130,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -5019,19 +5148,19 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K83">
-        <v>0.001050420168067227</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5043,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>951</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -5051,13 +5180,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1666666666666667</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5069,31 +5198,31 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="K84">
-        <v>0.001040582726326743</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>960</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -5101,13 +5230,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1555555555555556</v>
+        <v>0.08</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5119,19 +5248,19 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K85">
-        <v>0.0009560229445506692</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5143,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>1045</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -5151,13 +5280,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.141025641025641</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5169,19 +5298,19 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K86">
-        <v>0.0002545824847250509</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5193,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>3927</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -5201,7 +5330,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1333333333333333</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -5219,7 +5348,31 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K87">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -5227,7 +5380,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1111111111111111</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5245,7 +5398,31 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K88">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -5253,7 +5430,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5271,7 +5448,31 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K89">
+        <v>0.03703703703703703</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -5279,7 +5480,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09090909090909091</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5297,7 +5498,31 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K90">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -5305,13 +5530,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07142857142857142</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5323,7 +5548,31 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K91">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -5331,13 +5580,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05714285714285714</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5349,7 +5598,31 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>33</v>
+        <v>148</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K92">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -5357,7 +5630,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05263157894736842</v>
+        <v>0.003344481605351171</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5375,163 +5648,1045 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>18</v>
+        <v>298</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K93">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94">
-        <v>0.05033557046979865</v>
-      </c>
-      <c r="C94">
-        <v>15</v>
-      </c>
-      <c r="D94">
-        <v>16</v>
-      </c>
-      <c r="E94">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F94">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>283</v>
+      <c r="J94" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K94">
+        <v>0.03116883116883117</v>
+      </c>
+      <c r="L94">
+        <v>12</v>
+      </c>
+      <c r="M94">
+        <v>12</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>21</v>
+      <c r="J95" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K95">
+        <v>0.03005464480874317</v>
+      </c>
+      <c r="L95">
+        <v>33</v>
+      </c>
+      <c r="M95">
+        <v>33</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>1065</v>
       </c>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>0.04</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="1" t="s">
+      <c r="J96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K96">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K97">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17">
+      <c r="J98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K98">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17">
+      <c r="J99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K99">
+        <v>0.0218978102189781</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17">
+      <c r="J100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K100">
+        <v>0.02105263157894737</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="10:17">
+      <c r="J101" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K101">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17">
+      <c r="J102" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K102">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="10:17">
+      <c r="J103" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K103">
+        <v>0.01851851851851852</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="10:17">
+      <c r="J104" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K104">
+        <v>0.01739130434782609</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="10:17">
+      <c r="J105" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K105">
+        <v>0.01408450704225352</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="10:17">
+      <c r="J106" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K106">
+        <v>0.01351351351351351</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17">
+      <c r="J107" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K107">
+        <v>0.01327433628318584</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="108" spans="10:17">
+      <c r="J108" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K108">
+        <v>0.009708737864077669</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q108">
         <v>102</v>
       </c>
-      <c r="B97">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98">
-        <v>0.004184100418410041</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98">
-        <v>0.5</v>
-      </c>
-      <c r="F98">
-        <v>0.5</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99">
-        <v>0.001040582726326743</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99">
-        <v>0.5</v>
-      </c>
-      <c r="F99">
-        <v>0.5</v>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>960</v>
+    </row>
+    <row r="109" spans="10:17">
+      <c r="J109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K109">
+        <v>0.009523809523809525</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K110">
+        <v>0.009174311926605505</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K111">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K112">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K113">
+        <v>0.007692307692307693</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K114">
+        <v>0.006600660066006601</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K115">
+        <v>0.005420054200542005</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K116">
+        <v>0.005319148936170213</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K117">
+        <v>0.003703703703703704</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K118">
+        <v>0.00353356890459364</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K119">
+        <v>0.003289473684210526</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K120">
+        <v>0.003012048192771084</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>2</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K121">
+        <v>0.002695417789757413</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K122">
+        <v>0.002615518744551003</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K123">
+        <v>0.00228310502283105</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K124">
+        <v>0.0022271714922049</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K125">
+        <v>0.002092050209205021</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="126" spans="10:17">
+      <c r="J126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K126">
+        <v>0.001728110599078341</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="127" spans="10:17">
+      <c r="J127" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K127">
+        <v>0.001623376623376623</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="128" spans="10:17">
+      <c r="J128" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K128">
+        <v>0.001434720229555237</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>4</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="129" spans="10:17">
+      <c r="J129" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K129">
+        <v>0.001404494382022472</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="130" spans="10:17">
+      <c r="J130" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K130">
+        <v>0.001138952164009112</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="131" spans="10:17">
+      <c r="J131" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K131">
+        <v>0.0008748906386701663</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="132" spans="10:17">
+      <c r="J132" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K132">
+        <v>0.0005091649694501018</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>3926</v>
       </c>
     </row>
   </sheetData>
